--- a/src/test/resources/urunler.xlsx
+++ b/src/test/resources/urunler.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmetbulutluoz/Desktop/My Desktop/course/projeler/Team144_Cucumber/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmetbulutluoz/Desktop/My Desktop/course/projeler/Team145_Cucumber/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE7CF97-8DCA-7B47-9C42-E2E1D66D80BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D5FBE4-4072-F74E-A794-8362A072FB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="2460" windowWidth="10000" windowHeight="16340" xr2:uid="{F3EF83E3-B378-7A44-B310-3C947DD711FF}"/>
+    <workbookView xWindow="13840" yWindow="2860" windowWidth="10000" windowHeight="16340" xr2:uid="{F3EF83E3-B378-7A44-B310-3C947DD711FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
